--- a/GameDocuments/Planning GameLabs 1.xlsx
+++ b/GameDocuments/Planning GameLabs 1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dennis\Documents\Excell bestanden\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\the-Witch-of-Salem\GameDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>Jochem</t>
   </si>
@@ -95,19 +95,25 @@
     <t>ME_WI_Walls / ME_WI_Platform (4 days) Af 03-10-2016</t>
   </si>
   <si>
-    <t>SUB_Path_Sand (2 days) Af 23-09-2016</t>
-  </si>
-  <si>
-    <t>SUB_Dirt_(3 days) Af 28-09-2016</t>
-  </si>
-  <si>
-    <t>SUB_Rock (3 days) Af 03-10-2016</t>
-  </si>
-  <si>
-    <t>SUB_Moss (4 days) Af 07-10-2016</t>
-  </si>
-  <si>
     <t>MC_Jonas_ANI (1 week, 2 days) Af 07-10-2016</t>
+  </si>
+  <si>
+    <t>SUB_Cloth (2 hours) Af 22-09-2016</t>
+  </si>
+  <si>
+    <t>SUB_Leather_(1 day) Af 23-09-2016</t>
+  </si>
+  <si>
+    <t>SUB_Path_Sand (2 days) Af 27-09-2016</t>
+  </si>
+  <si>
+    <t>SUB_Dirt_(3 days) Af 30-09-2016</t>
+  </si>
+  <si>
+    <t>SUB_Rock (2 days) Af 04-10-2016</t>
+  </si>
+  <si>
+    <t>SUB_Moss (3 days) Af 07-10-2016</t>
   </si>
 </sst>
 </file>
@@ -437,7 +443,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -514,7 +520,7 @@
         <v>17</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -522,7 +528,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>12</v>
@@ -531,7 +537,7 @@
         <v>18</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -542,7 +548,7 @@
         <v>14</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -553,17 +559,23 @@
         <v>15</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="G7" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
